--- a/raw data used/live births/Dates.xlsx
+++ b/raw data used/live births/Dates.xlsx
@@ -24,23 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,224 +385,193 @@
     <col min="11" max="11" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>41883</v>
+      </c>
+      <c r="B1" s="1">
+        <v>41913</v>
+      </c>
+      <c r="C1" s="1">
+        <v>41944</v>
+      </c>
+      <c r="D1" s="1">
+        <v>41974</v>
+      </c>
+      <c r="E1" s="2">
+        <v>42005</v>
+      </c>
+      <c r="F1" s="2">
+        <v>42036</v>
+      </c>
+      <c r="G1" s="2">
+        <v>42064</v>
+      </c>
+      <c r="H1" s="2">
+        <v>42095</v>
+      </c>
+      <c r="I1" s="2">
+        <v>42095</v>
+      </c>
+      <c r="J1" s="2">
+        <v>42156</v>
+      </c>
+      <c r="K1" s="2">
+        <v>42186</v>
+      </c>
+      <c r="L1" s="2">
+        <v>42217</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>41883</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>42248</v>
       </c>
       <c r="B2" s="3">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="C2" s="3">
+        <v>42309</v>
+      </c>
+      <c r="D2" s="3">
+        <v>42339</v>
+      </c>
+      <c r="E2" s="4">
+        <v>42370</v>
+      </c>
+      <c r="F2" s="4">
+        <v>42401</v>
+      </c>
+      <c r="G2" s="4">
+        <v>42430</v>
+      </c>
+      <c r="H2" s="4">
+        <v>42461</v>
+      </c>
+      <c r="I2" s="4">
+        <v>42461</v>
+      </c>
+      <c r="J2" s="4">
+        <v>42522</v>
+      </c>
+      <c r="K2" s="4">
+        <v>42552</v>
+      </c>
+      <c r="L2" s="4">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>42614</v>
       </c>
-      <c r="D2" s="3">
+      <c r="B3" s="3">
+        <v>42644</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42675</v>
+      </c>
+      <c r="D3" s="3">
+        <v>42705</v>
+      </c>
+      <c r="E3" s="4">
+        <v>42736</v>
+      </c>
+      <c r="F3" s="4">
+        <v>42767</v>
+      </c>
+      <c r="G3" s="4">
+        <v>42795</v>
+      </c>
+      <c r="H3" s="4">
+        <v>42826</v>
+      </c>
+      <c r="I3" s="4">
+        <v>42826</v>
+      </c>
+      <c r="J3" s="4">
+        <v>42887</v>
+      </c>
+      <c r="K3" s="4">
+        <v>42917</v>
+      </c>
+      <c r="L3" s="4">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
         <v>42979</v>
       </c>
-      <c r="E2" s="1">
+      <c r="B4" s="3">
+        <v>43009</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43040</v>
+      </c>
+      <c r="D4" s="3">
+        <v>43070</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43101</v>
+      </c>
+      <c r="F4" s="4">
+        <v>43132</v>
+      </c>
+      <c r="G4" s="4">
+        <v>43160</v>
+      </c>
+      <c r="H4" s="4">
+        <v>43191</v>
+      </c>
+      <c r="I4" s="4">
+        <v>43191</v>
+      </c>
+      <c r="J4" s="4">
+        <v>43252</v>
+      </c>
+      <c r="K4" s="4">
+        <v>43282</v>
+      </c>
+      <c r="L4" s="4">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>43344</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>41913</v>
-      </c>
-      <c r="B3" s="3">
-        <v>42278</v>
-      </c>
-      <c r="C3" s="3">
-        <v>42644</v>
-      </c>
-      <c r="D3" s="3">
-        <v>43009</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B5" s="1">
         <v>43374</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>41944</v>
-      </c>
-      <c r="B4" s="3">
-        <v>42309</v>
-      </c>
-      <c r="C4" s="3">
-        <v>42675</v>
-      </c>
-      <c r="D4" s="3">
-        <v>43040</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C5" s="1">
         <v>43405</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>41974</v>
-      </c>
-      <c r="B5" s="3">
-        <v>42339</v>
-      </c>
-      <c r="C5" s="3">
-        <v>42705</v>
-      </c>
-      <c r="D5" s="3">
-        <v>43070</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="1">
         <v>43435</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>42005</v>
-      </c>
-      <c r="B6" s="4">
-        <v>42370</v>
-      </c>
-      <c r="C6" s="4">
-        <v>42736</v>
-      </c>
-      <c r="D6" s="4">
-        <v>43101</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="E5" s="2">
         <v>43466</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>42036</v>
-      </c>
-      <c r="B7" s="4">
-        <v>42401</v>
-      </c>
-      <c r="C7" s="4">
-        <v>42767</v>
-      </c>
-      <c r="D7" s="4">
-        <v>43132</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="F5" s="2">
         <v>43497</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>42064</v>
-      </c>
-      <c r="B8" s="4">
-        <v>42430</v>
-      </c>
-      <c r="C8" s="4">
-        <v>42795</v>
-      </c>
-      <c r="D8" s="4">
-        <v>43160</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="G5" s="2">
         <v>43525</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>42095</v>
-      </c>
-      <c r="B9" s="4">
-        <v>42461</v>
-      </c>
-      <c r="C9" s="4">
-        <v>42826</v>
-      </c>
-      <c r="D9" s="4">
-        <v>43191</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="H5" s="2">
         <v>43556</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>42095</v>
-      </c>
-      <c r="B10" s="4">
-        <v>42461</v>
-      </c>
-      <c r="C10" s="4">
-        <v>42826</v>
-      </c>
-      <c r="D10" s="4">
-        <v>43191</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="I5" s="2">
         <v>43556</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>42156</v>
-      </c>
-      <c r="B11" s="4">
-        <v>42522</v>
-      </c>
-      <c r="C11" s="4">
-        <v>42887</v>
-      </c>
-      <c r="D11" s="4">
-        <v>43252</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="J5" s="2">
         <v>43617</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>42186</v>
-      </c>
-      <c r="B12" s="4">
-        <v>42552</v>
-      </c>
-      <c r="C12" s="4">
-        <v>42917</v>
-      </c>
-      <c r="D12" s="4">
-        <v>43282</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="K5" s="2">
         <v>43647</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>42217</v>
-      </c>
-      <c r="B13" s="4">
-        <v>42583</v>
-      </c>
-      <c r="C13" s="4">
-        <v>42948</v>
-      </c>
-      <c r="D13" s="4">
-        <v>43313</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="L5" s="2">
         <v>43678</v>
       </c>
     </row>

--- a/raw data used/live births/Dates.xlsx
+++ b/raw data used/live births/Dates.xlsx
@@ -24,21 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -380,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -399,226 +387,201 @@
     <col min="9" max="9" width="10.36328125" customWidth="1"/>
     <col min="10" max="10" width="10.08984375" customWidth="1"/>
     <col min="11" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="12" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>41883</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
+        <v>41913</v>
+      </c>
+      <c r="C2" s="1">
+        <v>41944</v>
+      </c>
+      <c r="D2" s="1">
+        <v>41974</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42005</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42036</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42064</v>
+      </c>
+      <c r="H2" s="2">
+        <v>42095</v>
+      </c>
+      <c r="I2" s="2">
+        <v>42095</v>
+      </c>
+      <c r="J2" s="2">
+        <v>42156</v>
+      </c>
+      <c r="K2" s="2">
+        <v>42186</v>
+      </c>
+      <c r="L2" s="2">
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
         <v>42248</v>
-      </c>
-      <c r="C2" s="3">
-        <v>42614</v>
-      </c>
-      <c r="D2" s="3">
-        <v>42979</v>
-      </c>
-      <c r="E2" s="1">
-        <v>43344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>41913</v>
       </c>
       <c r="B3" s="3">
         <v>42278</v>
       </c>
       <c r="C3" s="3">
+        <v>42309</v>
+      </c>
+      <c r="D3" s="3">
+        <v>42339</v>
+      </c>
+      <c r="E3" s="4">
+        <v>42370</v>
+      </c>
+      <c r="F3" s="4">
+        <v>42401</v>
+      </c>
+      <c r="G3" s="4">
+        <v>42430</v>
+      </c>
+      <c r="H3" s="4">
+        <v>42461</v>
+      </c>
+      <c r="I3" s="4">
+        <v>42461</v>
+      </c>
+      <c r="J3" s="4">
+        <v>42522</v>
+      </c>
+      <c r="K3" s="4">
+        <v>42552</v>
+      </c>
+      <c r="L3" s="4">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>42614</v>
+      </c>
+      <c r="B4" s="3">
         <v>42644</v>
-      </c>
-      <c r="D3" s="3">
-        <v>43009</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>41944</v>
-      </c>
-      <c r="B4" s="3">
-        <v>42309</v>
       </c>
       <c r="C4" s="3">
         <v>42675</v>
       </c>
       <c r="D4" s="3">
+        <v>42705</v>
+      </c>
+      <c r="E4" s="4">
+        <v>42736</v>
+      </c>
+      <c r="F4" s="4">
+        <v>42767</v>
+      </c>
+      <c r="G4" s="4">
+        <v>42795</v>
+      </c>
+      <c r="H4" s="4">
+        <v>42826</v>
+      </c>
+      <c r="I4" s="4">
+        <v>42826</v>
+      </c>
+      <c r="J4" s="4">
+        <v>42887</v>
+      </c>
+      <c r="K4" s="4">
+        <v>42917</v>
+      </c>
+      <c r="L4" s="4">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>42979</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43009</v>
+      </c>
+      <c r="C5" s="3">
         <v>43040</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>41974</v>
-      </c>
-      <c r="B5" s="3">
-        <v>42339</v>
-      </c>
-      <c r="C5" s="3">
-        <v>42705</v>
       </c>
       <c r="D5" s="3">
         <v>43070</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
+        <v>43101</v>
+      </c>
+      <c r="F5" s="4">
+        <v>43132</v>
+      </c>
+      <c r="G5" s="4">
+        <v>43160</v>
+      </c>
+      <c r="H5" s="4">
+        <v>43191</v>
+      </c>
+      <c r="I5" s="4">
+        <v>43191</v>
+      </c>
+      <c r="J5" s="4">
+        <v>43252</v>
+      </c>
+      <c r="K5" s="4">
+        <v>43282</v>
+      </c>
+      <c r="L5" s="4">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43374</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43405</v>
+      </c>
+      <c r="D6" s="1">
         <v>43435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>42005</v>
-      </c>
-      <c r="B6" s="4">
-        <v>42370</v>
-      </c>
-      <c r="C6" s="4">
-        <v>42736</v>
-      </c>
-      <c r="D6" s="4">
-        <v>43101</v>
       </c>
       <c r="E6" s="2">
         <v>43466</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>42036</v>
-      </c>
-      <c r="B7" s="4">
-        <v>42401</v>
-      </c>
-      <c r="C7" s="4">
-        <v>42767</v>
-      </c>
-      <c r="D7" s="4">
-        <v>43132</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="F6" s="2">
         <v>43497</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>42064</v>
-      </c>
-      <c r="B8" s="4">
-        <v>42430</v>
-      </c>
-      <c r="C8" s="4">
-        <v>42795</v>
-      </c>
-      <c r="D8" s="4">
-        <v>43160</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="G6" s="2">
         <v>43525</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>42095</v>
-      </c>
-      <c r="B9" s="4">
-        <v>42461</v>
-      </c>
-      <c r="C9" s="4">
-        <v>42826</v>
-      </c>
-      <c r="D9" s="4">
-        <v>43191</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="H6" s="2">
         <v>43556</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>42095</v>
-      </c>
-      <c r="B10" s="4">
-        <v>42461</v>
-      </c>
-      <c r="C10" s="4">
-        <v>42826</v>
-      </c>
-      <c r="D10" s="4">
-        <v>43191</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="I6" s="2">
         <v>43556</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>42156</v>
-      </c>
-      <c r="B11" s="4">
-        <v>42522</v>
-      </c>
-      <c r="C11" s="4">
-        <v>42887</v>
-      </c>
-      <c r="D11" s="4">
-        <v>43252</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="J6" s="2">
         <v>43617</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>42186</v>
-      </c>
-      <c r="B12" s="4">
-        <v>42552</v>
-      </c>
-      <c r="C12" s="4">
-        <v>42917</v>
-      </c>
-      <c r="D12" s="4">
-        <v>43282</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="K6" s="2">
         <v>43647</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>42217</v>
-      </c>
-      <c r="B13" s="4">
-        <v>42583</v>
-      </c>
-      <c r="C13" s="4">
-        <v>42948</v>
-      </c>
-      <c r="D13" s="4">
-        <v>43313</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="L6" s="2">
         <v>43678</v>
       </c>
     </row>

--- a/raw data used/live births/Dates.xlsx
+++ b/raw data used/live births/Dates.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Vacant</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -376,212 +379,218 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C2" s="1">
         <v>41883</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="1">
         <v>41913</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>41944</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>41974</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <v>42005</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <v>42036</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>42064</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>42095</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>42095</v>
       </c>
-      <c r="J2" s="2">
+      <c r="L2" s="2">
         <v>42156</v>
       </c>
-      <c r="K2" s="2">
+      <c r="M2" s="2">
         <v>42186</v>
       </c>
-      <c r="L2" s="2">
+      <c r="N2" s="2">
         <v>42217</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C3" s="3">
         <v>42248</v>
       </c>
-      <c r="B3" s="3">
+      <c r="D3" s="3">
         <v>42278</v>
       </c>
-      <c r="C3" s="3">
+      <c r="E3" s="3">
         <v>42309</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F3" s="3">
         <v>42339</v>
       </c>
-      <c r="E3" s="4">
+      <c r="G3" s="4">
         <v>42370</v>
       </c>
-      <c r="F3" s="4">
+      <c r="H3" s="4">
         <v>42401</v>
       </c>
-      <c r="G3" s="4">
+      <c r="I3" s="4">
         <v>42430</v>
       </c>
-      <c r="H3" s="4">
+      <c r="J3" s="4">
         <v>42461</v>
       </c>
-      <c r="I3" s="4">
+      <c r="K3" s="4">
         <v>42461</v>
       </c>
-      <c r="J3" s="4">
+      <c r="L3" s="4">
         <v>42522</v>
       </c>
-      <c r="K3" s="4">
+      <c r="M3" s="4">
         <v>42552</v>
       </c>
-      <c r="L3" s="4">
+      <c r="N3" s="4">
         <v>42583</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C4" s="3">
         <v>42614</v>
       </c>
-      <c r="B4" s="3">
+      <c r="D4" s="3">
         <v>42644</v>
       </c>
-      <c r="C4" s="3">
+      <c r="E4" s="3">
         <v>42675</v>
       </c>
-      <c r="D4" s="3">
+      <c r="F4" s="3">
         <v>42705</v>
       </c>
-      <c r="E4" s="4">
+      <c r="G4" s="4">
         <v>42736</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="4">
         <v>42767</v>
       </c>
-      <c r="G4" s="4">
+      <c r="I4" s="4">
         <v>42795</v>
       </c>
-      <c r="H4" s="4">
+      <c r="J4" s="4">
         <v>42826</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <v>42826</v>
       </c>
-      <c r="J4" s="4">
+      <c r="L4" s="4">
         <v>42887</v>
       </c>
-      <c r="K4" s="4">
+      <c r="M4" s="4">
         <v>42917</v>
       </c>
-      <c r="L4" s="4">
+      <c r="N4" s="4">
         <v>42948</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C5" s="3">
         <v>42979</v>
       </c>
-      <c r="B5" s="3">
+      <c r="D5" s="3">
         <v>43009</v>
       </c>
-      <c r="C5" s="3">
+      <c r="E5" s="3">
         <v>43040</v>
       </c>
-      <c r="D5" s="3">
+      <c r="F5" s="3">
         <v>43070</v>
       </c>
-      <c r="E5" s="4">
+      <c r="G5" s="4">
         <v>43101</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="4">
         <v>43132</v>
       </c>
-      <c r="G5" s="4">
+      <c r="I5" s="4">
         <v>43160</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="4">
         <v>43191</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="4">
         <v>43191</v>
       </c>
-      <c r="J5" s="4">
+      <c r="L5" s="4">
         <v>43252</v>
       </c>
-      <c r="K5" s="4">
+      <c r="M5" s="4">
         <v>43282</v>
       </c>
-      <c r="L5" s="4">
+      <c r="N5" s="4">
         <v>43313</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C6" s="1">
         <v>43344</v>
       </c>
-      <c r="B6" s="1">
+      <c r="D6" s="1">
         <v>43374</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <v>43405</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <v>43435</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>43466</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2">
         <v>43497</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>43525</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>43556</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>43556</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>43617</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <v>43647</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N6" s="2">
         <v>43678</v>
       </c>
     </row>
